--- a/src/test/resources/Data/LoginQA.xlsx
+++ b/src/test/resources/Data/LoginQA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="SecOwner" sheetId="1" state="visible" r:id="rId3"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="108">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -42,12 +42,6 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">george@test.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For@0987</t>
-  </si>
-  <si>
     <t xml:space="preserve">Company name</t>
   </si>
   <si>
@@ -97,18 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">Baner Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rashmi.mishra@5d.solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R@shmi@321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logged in successfully with valid creds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -641,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,18 +643,10 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="george@test.com "/>
-    <hyperlink ref="B2" r:id="rId2" display="For@0987"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -701,7 +675,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,66 +709,66 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>997633434</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +800,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,18 +834,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -903,18 +877,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -935,26 +909,26 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20240829</v>
@@ -982,93 +956,84 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>7020338597</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="kiara@demo1.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="rashmi.mishra@5d.solutions"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1100,18 +1065,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1133,61 +1098,61 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19980717</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>9822677</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1212,73 +1177,73 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19930102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>987766</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1303,78 +1268,78 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19950709</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>9877543</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1364,7 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1411,191 +1376,191 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1730</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>2030</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>2130</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1930</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E6" s="10" t="n">
         <v>16</v>
@@ -1604,33 +1569,33 @@
         <v>2230</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I6" s="10" t="n">
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>15</v>
@@ -1639,33 +1604,33 @@
         <v>1930</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I7" s="10" t="n">
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>16</v>
@@ -1674,33 +1639,33 @@
         <v>1930</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I8" s="10" t="n">
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>15</v>
@@ -1709,313 +1674,313 @@
         <v>1930</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I9" s="10" t="n">
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>1930</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1930</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>1830</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1530</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>1730</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>2030</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>2130</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1930</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E18" s="10" t="n">
         <v>16</v>
@@ -2024,33 +1989,33 @@
         <v>2230</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I18" s="10" t="n">
         <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E19" s="10" t="n">
         <v>15</v>
@@ -2059,33 +2024,33 @@
         <v>1930</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I19" s="10" t="n">
         <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E20" s="10" t="n">
         <v>16</v>
@@ -2094,33 +2059,33 @@
         <v>1930</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I20" s="10" t="n">
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E21" s="10" t="n">
         <v>15</v>
@@ -2129,19 +2094,19 @@
         <v>1930</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I21" s="10" t="n">
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2170,21 +2135,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>20240915</v>
@@ -2216,66 +2181,66 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>7020338597</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
